--- a/Outputs/df_pred_final.xlsx
+++ b/Outputs/df_pred_final.xlsx
@@ -570,73 +570,73 @@
         <v>45137</v>
       </c>
       <c r="B2">
-        <v>-5.840083122253418</v>
+        <v>-25.11970138549805</v>
       </c>
       <c r="C2">
-        <v>2.325382471084595</v>
+        <v>-22.67184448242188</v>
       </c>
       <c r="D2">
-        <v>82.87636566162109</v>
+        <v>25.92960357666016</v>
       </c>
       <c r="E2">
-        <v>-0.9113228321075439</v>
+        <v>-1.340288639068604</v>
       </c>
       <c r="F2">
-        <v>1.194046854972839</v>
+        <v>-51.84298706054688</v>
       </c>
       <c r="G2">
-        <v>20.0855712890625</v>
+        <v>23.04407501220703</v>
       </c>
       <c r="H2">
-        <v>-0.171855628490448</v>
+        <v>-0.5077123045921326</v>
       </c>
       <c r="I2">
-        <v>4.561209678649902</v>
+        <v>-25.3112621307373</v>
       </c>
       <c r="J2">
-        <v>-0.3077832758426666</v>
+        <v>0.3400163650512695</v>
       </c>
       <c r="K2">
-        <v>-13.77364158630371</v>
+        <v>308.7503967285156</v>
       </c>
       <c r="L2">
-        <v>706.9239501953125</v>
+        <v>1226.387573242188</v>
       </c>
       <c r="M2">
-        <v>0.1318663358688354</v>
+        <v>0.8029729723930359</v>
       </c>
       <c r="N2">
-        <v>7.751447200775146</v>
+        <v>34.77053070068359</v>
       </c>
       <c r="O2">
-        <v>13.73317432403564</v>
+        <v>45.04917526245117</v>
       </c>
       <c r="P2">
-        <v>13.73317432403564</v>
+        <v>45.04917526245117</v>
       </c>
       <c r="Q2">
-        <v>-0.07336012274026871</v>
+        <v>0.8636212348937988</v>
       </c>
       <c r="R2">
-        <v>-2.115844964981079</v>
+        <v>-2.914000511169434</v>
       </c>
       <c r="S2">
-        <v>-2.115844964981079</v>
+        <v>-2.914000511169434</v>
       </c>
       <c r="T2">
-        <v>1.474483609199524</v>
+        <v>0.7942197322845459</v>
       </c>
       <c r="U2">
-        <v>2.227800130844116</v>
+        <v>2.71198296546936</v>
       </c>
       <c r="V2">
-        <v>2.757691860198975</v>
+        <v>30.19022178649902</v>
       </c>
       <c r="W2">
-        <v>3.388950109481812</v>
+        <v>3.342446327209473</v>
       </c>
       <c r="X2">
-        <v>79.02832794189453</v>
+        <v>32.50513458251953</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -662,73 +662,73 @@
         <v>45227</v>
       </c>
       <c r="B3">
-        <v>-13.52920341491699</v>
+        <v>-8.492215156555176</v>
       </c>
       <c r="C3">
-        <v>-17.53503799438477</v>
+        <v>-4.724676609039307</v>
       </c>
       <c r="D3">
-        <v>74.71180725097656</v>
+        <v>17.3478889465332</v>
       </c>
       <c r="E3">
-        <v>-0.1644800156354904</v>
+        <v>0.04355647787451744</v>
       </c>
       <c r="F3">
-        <v>0.7813841104507446</v>
+        <v>0.4876573085784912</v>
       </c>
       <c r="G3">
-        <v>22.1196460723877</v>
+        <v>26.60637092590332</v>
       </c>
       <c r="H3">
-        <v>0.03261515125632286</v>
+        <v>0.4844986498355865</v>
       </c>
       <c r="I3">
-        <v>3.015453338623047</v>
+        <v>-2.470922708511353</v>
       </c>
       <c r="J3">
-        <v>0.05458399280905724</v>
+        <v>0.297518789768219</v>
       </c>
       <c r="K3">
-        <v>806.919677734375</v>
+        <v>798.3201293945312</v>
       </c>
       <c r="L3">
-        <v>2.971413135528564</v>
+        <v>103.8267822265625</v>
       </c>
       <c r="M3">
-        <v>-0.05713923275470734</v>
+        <v>0.5748316645622253</v>
       </c>
       <c r="N3">
-        <v>12.62931346893311</v>
+        <v>43.00508117675781</v>
       </c>
       <c r="O3">
-        <v>-6.686675071716309</v>
+        <v>26.92693328857422</v>
       </c>
       <c r="P3">
-        <v>-6.686675071716309</v>
+        <v>26.92693328857422</v>
       </c>
       <c r="Q3">
-        <v>0.2831992208957672</v>
+        <v>0.8309404850006104</v>
       </c>
       <c r="R3">
-        <v>-1.947022080421448</v>
+        <v>-0.8417165279388428</v>
       </c>
       <c r="S3">
-        <v>-1.947022080421448</v>
+        <v>-0.8417165279388428</v>
       </c>
       <c r="T3">
-        <v>1.927348136901855</v>
+        <v>0.7148045897483826</v>
       </c>
       <c r="U3">
-        <v>1.501382231712341</v>
+        <v>2.041346311569214</v>
       </c>
       <c r="V3">
-        <v>-35.97509002685547</v>
+        <v>5.900196075439453</v>
       </c>
       <c r="W3">
-        <v>-5.467119693756104</v>
+        <v>-3.329585790634155</v>
       </c>
       <c r="X3">
-        <v>71.91986846923828</v>
+        <v>25.55878829956055</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -754,73 +754,73 @@
         <v>45317</v>
       </c>
       <c r="B4">
-        <v>-10.04774570465088</v>
+        <v>-11.0331859588623</v>
       </c>
       <c r="C4">
-        <v>-14.99323749542236</v>
+        <v>-14.13271045684814</v>
       </c>
       <c r="D4">
-        <v>77.07431030273438</v>
+        <v>24.39151191711426</v>
       </c>
       <c r="E4">
-        <v>-0.1089628934860229</v>
+        <v>0.1352475583553314</v>
       </c>
       <c r="F4">
-        <v>0.8638513088226318</v>
+        <v>-0.1078355833888054</v>
       </c>
       <c r="G4">
-        <v>23.16939735412598</v>
+        <v>26.21429634094238</v>
       </c>
       <c r="H4">
-        <v>-0.1012252420186996</v>
+        <v>0.1769199967384338</v>
       </c>
       <c r="I4">
-        <v>1.91064715385437</v>
+        <v>0.4401784837245941</v>
       </c>
       <c r="J4">
-        <v>0.6839450001716614</v>
+        <v>-0.5515047311782837</v>
       </c>
       <c r="K4">
-        <v>1118.634033203125</v>
+        <v>1407.333740234375</v>
       </c>
       <c r="L4">
-        <v>97.57118988037109</v>
+        <v>-745.91015625</v>
       </c>
       <c r="M4">
-        <v>0.237115666270256</v>
+        <v>-0.2108540236949921</v>
       </c>
       <c r="N4">
-        <v>11.27050399780273</v>
+        <v>40.39962005615234</v>
       </c>
       <c r="O4">
-        <v>0.3011274337768555</v>
+        <v>12.9362621307373</v>
       </c>
       <c r="P4">
-        <v>0.3011274337768555</v>
+        <v>12.9362621307373</v>
       </c>
       <c r="Q4">
-        <v>0.08147717267274857</v>
+        <v>0.0920451283454895</v>
       </c>
       <c r="R4">
-        <v>-0.815467894077301</v>
+        <v>2.662300109863281</v>
       </c>
       <c r="S4">
-        <v>-0.815467894077301</v>
+        <v>2.662300109863281</v>
       </c>
       <c r="T4">
-        <v>1.617719531059265</v>
+        <v>0.3111291825771332</v>
       </c>
       <c r="U4">
-        <v>2.235846757888794</v>
+        <v>2.072452068328857</v>
       </c>
       <c r="V4">
-        <v>-98.24581909179688</v>
+        <v>-27.30607795715332</v>
       </c>
       <c r="W4">
-        <v>-3.689138412475586</v>
+        <v>-0.7958115339279175</v>
       </c>
       <c r="X4">
-        <v>65.21420288085938</v>
+        <v>15.62887477874756</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -846,73 +846,73 @@
         <v>45407</v>
       </c>
       <c r="B5">
-        <v>-14.54831218719482</v>
+        <v>-14.79250621795654</v>
       </c>
       <c r="C5">
-        <v>-9.541139602661133</v>
+        <v>-17.97452926635742</v>
       </c>
       <c r="D5">
-        <v>66.84272766113281</v>
+        <v>6.068281173706055</v>
       </c>
       <c r="E5">
-        <v>9.59587574005127</v>
+        <v>9.808738708496094</v>
       </c>
       <c r="F5">
-        <v>0.2078820914030075</v>
+        <v>-0.7195783257484436</v>
       </c>
       <c r="G5">
-        <v>25.24716186523438</v>
+        <v>28.90035057067871</v>
       </c>
       <c r="H5">
-        <v>8.853168487548828</v>
+        <v>8.574110984802246</v>
       </c>
       <c r="I5">
-        <v>-10.66510009765625</v>
+        <v>-17.58768463134766</v>
       </c>
       <c r="J5">
-        <v>-1.501626372337341</v>
+        <v>-2.493779182434082</v>
       </c>
       <c r="K5">
-        <v>-156.1312103271484</v>
+        <v>-24.05217361450195</v>
       </c>
       <c r="L5">
-        <v>-1795.5546875</v>
+        <v>-2227.613525390625</v>
       </c>
       <c r="M5">
-        <v>-0.1412999331951141</v>
+        <v>-0.3980807065963745</v>
       </c>
       <c r="N5">
-        <v>-5.010905742645264</v>
+        <v>19.03312873840332</v>
       </c>
       <c r="O5">
-        <v>6.16310453414917</v>
+        <v>19.23028755187988</v>
       </c>
       <c r="P5">
-        <v>6.16310453414917</v>
+        <v>19.23028755187988</v>
       </c>
       <c r="Q5">
-        <v>-3.530746221542358</v>
+        <v>-3.648974657058716</v>
       </c>
       <c r="R5">
-        <v>-2.195369958877563</v>
+        <v>0.9745237827301025</v>
       </c>
       <c r="S5">
-        <v>-2.195369958877563</v>
+        <v>0.9745237827301025</v>
       </c>
       <c r="T5">
-        <v>0.6701785922050476</v>
+        <v>-0.2845452129840851</v>
       </c>
       <c r="U5">
-        <v>2.168923616409302</v>
+        <v>2.08126425743103</v>
       </c>
       <c r="V5">
-        <v>75.65771484375</v>
+        <v>150.1217193603516</v>
       </c>
       <c r="W5">
-        <v>0.2223017662763596</v>
+        <v>0.8866282105445862</v>
       </c>
       <c r="X5">
-        <v>60.88000106811523</v>
+        <v>10.27288246154785</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -938,73 +938,73 @@
         <v>45497</v>
       </c>
       <c r="B6">
-        <v>-0.02600096166133881</v>
+        <v>-27.05262565612793</v>
       </c>
       <c r="C6">
-        <v>2.446545362472534</v>
+        <v>-23.42703247070312</v>
       </c>
       <c r="D6">
-        <v>71.06401062011719</v>
+        <v>-23.2493724822998</v>
       </c>
       <c r="E6">
-        <v>-5.025675773620605</v>
+        <v>-4.356837272644043</v>
       </c>
       <c r="F6">
-        <v>1.369175672531128</v>
+        <v>-51.65900421142578</v>
       </c>
       <c r="G6">
-        <v>24.2546272277832</v>
+        <v>27.20580291748047</v>
       </c>
       <c r="H6">
-        <v>-2.32131552696228</v>
+        <v>-2.03832483291626</v>
       </c>
       <c r="I6">
-        <v>5.011415958404541</v>
+        <v>-25.58936882019043</v>
       </c>
       <c r="J6">
-        <v>-0.2676774263381958</v>
+        <v>-1.408833265304565</v>
       </c>
       <c r="K6">
-        <v>-1409.199462890625</v>
+        <v>-645.9468383789062</v>
       </c>
       <c r="L6">
-        <v>347.5165710449219</v>
+        <v>553.1709594726562</v>
       </c>
       <c r="M6">
-        <v>0.0379626676440239</v>
+        <v>0.03199166804552078</v>
       </c>
       <c r="N6">
-        <v>0.284925103187561</v>
+        <v>29.77407836914062</v>
       </c>
       <c r="O6">
-        <v>15.10823059082031</v>
+        <v>41.09946823120117</v>
       </c>
       <c r="P6">
-        <v>15.10823059082031</v>
+        <v>41.09946823120117</v>
       </c>
       <c r="Q6">
-        <v>-0.3683886229991913</v>
+        <v>0.4346582889556885</v>
       </c>
       <c r="R6">
-        <v>-2.092887163162231</v>
+        <v>1.259854912757874</v>
       </c>
       <c r="S6">
-        <v>-2.092887163162231</v>
+        <v>1.259854912757874</v>
       </c>
       <c r="T6">
-        <v>1.448796272277832</v>
+        <v>-0.2019862681627274</v>
       </c>
       <c r="U6">
-        <v>2.186763525009155</v>
+        <v>2.822993755340576</v>
       </c>
       <c r="V6">
-        <v>-3.401474952697754</v>
+        <v>69.02952575683594</v>
       </c>
       <c r="W6">
-        <v>8.998087882995605</v>
+        <v>9.970878601074219</v>
       </c>
       <c r="X6">
-        <v>69.81499481201172</v>
+        <v>7.977880001068115</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1030,73 +1030,73 @@
         <v>45587</v>
       </c>
       <c r="B7">
-        <v>-11.83112907409668</v>
+        <v>-27.64445495605469</v>
       </c>
       <c r="C7">
-        <v>-8.741915702819824</v>
+        <v>-0.8364179730415344</v>
       </c>
       <c r="D7">
-        <v>53.72877502441406</v>
+        <v>-32.30582809448242</v>
       </c>
       <c r="E7">
-        <v>-3.997950553894043</v>
+        <v>-3.00998854637146</v>
       </c>
       <c r="F7">
-        <v>0.753582239151001</v>
+        <v>0.5025368332862854</v>
       </c>
       <c r="G7">
-        <v>26.76049613952637</v>
+        <v>25.76656532287598</v>
       </c>
       <c r="H7">
-        <v>-1.911838054656982</v>
+        <v>-1.181887269020081</v>
       </c>
       <c r="I7">
-        <v>5.352549076080322</v>
+        <v>-0.6898784041404724</v>
       </c>
       <c r="J7">
-        <v>-1.986062288284302</v>
+        <v>-3.179129362106323</v>
       </c>
       <c r="K7">
-        <v>-538.0380859375</v>
+        <v>833.4768676757812</v>
       </c>
       <c r="L7">
-        <v>306.1264038085938</v>
+        <v>-280.4954223632812</v>
       </c>
       <c r="M7">
-        <v>-0.1177394837141037</v>
+        <v>-0.135724201798439</v>
       </c>
       <c r="N7">
-        <v>3.307025194168091</v>
+        <v>35.83242034912109</v>
       </c>
       <c r="O7">
-        <v>14.53313446044922</v>
+        <v>47.9129524230957</v>
       </c>
       <c r="P7">
-        <v>14.53313446044922</v>
+        <v>47.9129524230957</v>
       </c>
       <c r="Q7">
-        <v>-0.8311944603919983</v>
+        <v>-0.7276058793067932</v>
       </c>
       <c r="R7">
-        <v>-1.981538772583008</v>
+        <v>1.66527783870697</v>
       </c>
       <c r="S7">
-        <v>-1.981538772583008</v>
+        <v>1.66527783870697</v>
       </c>
       <c r="T7">
-        <v>1.20331609249115</v>
+        <v>-0.9625105261802673</v>
       </c>
       <c r="U7">
-        <v>1.805503010749817</v>
+        <v>2.411259174346924</v>
       </c>
       <c r="V7">
-        <v>-57.23726272583008</v>
+        <v>-8.630999565124512</v>
       </c>
       <c r="W7">
-        <v>1.704586744308472</v>
+        <v>3.293629169464111</v>
       </c>
       <c r="X7">
-        <v>66.35812377929688</v>
+        <v>8.337184906005859</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1122,73 +1122,73 @@
         <v>45677</v>
       </c>
       <c r="B8">
-        <v>-1.943241119384766</v>
+        <v>-2.896233081817627</v>
       </c>
       <c r="C8">
-        <v>-6.322901248931885</v>
+        <v>-4.088352680206299</v>
       </c>
       <c r="D8">
-        <v>85.68440246582031</v>
+        <v>21.68244552612305</v>
       </c>
       <c r="E8">
-        <v>-0.9323956966400146</v>
+        <v>-0.02985861524939537</v>
       </c>
       <c r="F8">
-        <v>1.371161580085754</v>
+        <v>0.2557342648506165</v>
       </c>
       <c r="G8">
-        <v>20.21362113952637</v>
+        <v>24.20516014099121</v>
       </c>
       <c r="H8">
-        <v>0.3115542829036713</v>
+        <v>0.429111659526825</v>
       </c>
       <c r="I8">
-        <v>3.36872386932373</v>
+        <v>-0.1865628063678741</v>
       </c>
       <c r="J8">
-        <v>1.736481308937073</v>
+        <v>-0.6391562223434448</v>
       </c>
       <c r="K8">
-        <v>-705.0032348632812</v>
+        <v>747.646240234375</v>
       </c>
       <c r="L8">
-        <v>1470.6640625</v>
+        <v>-45.04375076293945</v>
       </c>
       <c r="M8">
-        <v>0.4027568399906158</v>
+        <v>-0.1261487156152725</v>
       </c>
       <c r="N8">
-        <v>-0.6490163803100586</v>
+        <v>32.78348159790039</v>
       </c>
       <c r="O8">
-        <v>20.15971183776855</v>
+        <v>24.23133277893066</v>
       </c>
       <c r="P8">
-        <v>20.15971183776855</v>
+        <v>24.23133277893066</v>
       </c>
       <c r="Q8">
-        <v>0.3796076774597168</v>
+        <v>-0.273406445980072</v>
       </c>
       <c r="R8">
-        <v>-0.484047144651413</v>
+        <v>3.808183193206787</v>
       </c>
       <c r="S8">
-        <v>-0.484047144651413</v>
+        <v>3.808183193206787</v>
       </c>
       <c r="T8">
-        <v>0.6414057016372681</v>
+        <v>-0.3489300310611725</v>
       </c>
       <c r="U8">
-        <v>1.989799499511719</v>
+        <v>2.107977867126465</v>
       </c>
       <c r="V8">
-        <v>-118.2119750976562</v>
+        <v>-8.579910278320312</v>
       </c>
       <c r="W8">
-        <v>-8.814223289489746</v>
+        <v>-0.5098786354064941</v>
       </c>
       <c r="X8">
-        <v>81.76326751708984</v>
+        <v>25.2750301361084</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1214,73 +1214,73 @@
         <v>45767</v>
       </c>
       <c r="B9">
-        <v>-10.73813247680664</v>
+        <v>-16.15147972106934</v>
       </c>
       <c r="C9">
-        <v>-19.40362358093262</v>
+        <v>-21.10977172851562</v>
       </c>
       <c r="D9">
-        <v>76.61137390136719</v>
+        <v>16.94568252563477</v>
       </c>
       <c r="E9">
-        <v>9.74598503112793</v>
+        <v>9.826655387878418</v>
       </c>
       <c r="F9">
-        <v>0.1574804782867432</v>
+        <v>-0.1254175007343292</v>
       </c>
       <c r="G9">
-        <v>23.23171043395996</v>
+        <v>25.18712425231934</v>
       </c>
       <c r="H9">
-        <v>8.768775939941406</v>
+        <v>8.042248725891113</v>
       </c>
       <c r="I9">
-        <v>-7.022299289703369</v>
+        <v>-14.52534294128418</v>
       </c>
       <c r="J9">
-        <v>-1.773566603660583</v>
+        <v>-2.242448806762695</v>
       </c>
       <c r="K9">
-        <v>-244.8748168945312</v>
+        <v>293.3280944824219</v>
       </c>
       <c r="L9">
-        <v>-1322.484252929688</v>
+        <v>-1797.958740234375</v>
       </c>
       <c r="M9">
-        <v>-0.2568931877613068</v>
+        <v>-0.4958050549030304</v>
       </c>
       <c r="N9">
-        <v>4.207248210906982</v>
+        <v>6.924431800842285</v>
       </c>
       <c r="O9">
-        <v>21.04514694213867</v>
+        <v>33.44284439086914</v>
       </c>
       <c r="P9">
-        <v>21.04514694213867</v>
+        <v>33.44284439086914</v>
       </c>
       <c r="Q9">
-        <v>-3.111055850982666</v>
+        <v>-2.890916585922241</v>
       </c>
       <c r="R9">
-        <v>-2.063004016876221</v>
+        <v>1.116070985794067</v>
       </c>
       <c r="S9">
-        <v>-2.063004016876221</v>
+        <v>1.116070985794067</v>
       </c>
       <c r="T9">
-        <v>1.087118983268738</v>
+        <v>0.4365635812282562</v>
       </c>
       <c r="U9">
-        <v>2.161209106445312</v>
+        <v>2.159329414367676</v>
       </c>
       <c r="V9">
-        <v>89.15589141845703</v>
+        <v>136.6273345947266</v>
       </c>
       <c r="W9">
-        <v>1.801285028457642</v>
+        <v>1.347352147102356</v>
       </c>
       <c r="X9">
-        <v>68.28843688964844</v>
+        <v>24.01491546630859</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1306,73 +1306,73 @@
         <v>45857</v>
       </c>
       <c r="B10">
-        <v>-5.628553867340088</v>
+        <v>-30.76314163208008</v>
       </c>
       <c r="C10">
-        <v>-0.5215412974357605</v>
+        <v>-32.48233032226562</v>
       </c>
       <c r="D10">
-        <v>78.68653869628906</v>
+        <v>-19.30304908752441</v>
       </c>
       <c r="E10">
-        <v>-0.936194121837616</v>
+        <v>-0.8202905654907227</v>
       </c>
       <c r="F10">
-        <v>1.157013058662415</v>
+        <v>-51.97920608520508</v>
       </c>
       <c r="G10">
-        <v>20.02672576904297</v>
+        <v>23.44688606262207</v>
       </c>
       <c r="H10">
-        <v>-0.1562121361494064</v>
+        <v>-0.1717464923858643</v>
       </c>
       <c r="I10">
-        <v>2.04962158203125</v>
+        <v>-29.64241981506348</v>
       </c>
       <c r="J10">
-        <v>-0.6843536496162415</v>
+        <v>-1.722833395004272</v>
       </c>
       <c r="K10">
-        <v>405.9563903808594</v>
+        <v>121.0024108886719</v>
       </c>
       <c r="L10">
-        <v>425.7253112792969</v>
+        <v>1062.006713867188</v>
       </c>
       <c r="M10">
-        <v>0.06384336948394775</v>
+        <v>0.231156662106514</v>
       </c>
       <c r="N10">
-        <v>2.887207984924316</v>
+        <v>34.00453186035156</v>
       </c>
       <c r="O10">
-        <v>16.74003219604492</v>
+        <v>47.42405319213867</v>
       </c>
       <c r="P10">
-        <v>16.74003219604492</v>
+        <v>47.42405319213867</v>
       </c>
       <c r="Q10">
-        <v>-0.2902676463127136</v>
+        <v>1.068004727363586</v>
       </c>
       <c r="R10">
-        <v>-2.388348579406738</v>
+        <v>0.9315007925033569</v>
       </c>
       <c r="S10">
-        <v>-2.388348579406738</v>
+        <v>0.9315007925033569</v>
       </c>
       <c r="T10">
-        <v>1.547061681747437</v>
+        <v>-0.08315790444612503</v>
       </c>
       <c r="U10">
-        <v>2.199375867843628</v>
+        <v>2.634017467498779</v>
       </c>
       <c r="V10">
-        <v>-6.100397109985352</v>
+        <v>61.03511047363281</v>
       </c>
       <c r="W10">
-        <v>3.06452751159668</v>
+        <v>4.579800605773926</v>
       </c>
       <c r="X10">
-        <v>76.43901824951172</v>
+        <v>8.475796699523926</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1398,73 +1398,73 @@
         <v>45947</v>
       </c>
       <c r="B11">
-        <v>-16.14634895324707</v>
+        <v>-10.85751914978027</v>
       </c>
       <c r="C11">
-        <v>-17.84815979003906</v>
+        <v>-3.224904775619507</v>
       </c>
       <c r="D11">
-        <v>72.44785308837891</v>
+        <v>-15.38190937042236</v>
       </c>
       <c r="E11">
-        <v>-0.07620128989219666</v>
+        <v>0.02969927154481411</v>
       </c>
       <c r="F11">
-        <v>0.7663593292236328</v>
+        <v>0.4811443388462067</v>
       </c>
       <c r="G11">
-        <v>22.8511905670166</v>
+        <v>27.93230247497559</v>
       </c>
       <c r="H11">
-        <v>0.004478760063648224</v>
+        <v>0.4172775745391846</v>
       </c>
       <c r="I11">
-        <v>5.822524547576904</v>
+        <v>1.715919494628906</v>
       </c>
       <c r="J11">
-        <v>-1.971078753471375</v>
+        <v>-3.29773998260498</v>
       </c>
       <c r="K11">
-        <v>710.3790893554688</v>
+        <v>841.2425537109375</v>
       </c>
       <c r="L11">
-        <v>-131.2481231689453</v>
+        <v>-165.7992095947266</v>
       </c>
       <c r="M11">
-        <v>-0.04388979822397232</v>
+        <v>0.01276915613561869</v>
       </c>
       <c r="N11">
-        <v>4.780544281005859</v>
+        <v>33.73828125</v>
       </c>
       <c r="O11">
-        <v>-6.594361305236816</v>
+        <v>22.69543647766113</v>
       </c>
       <c r="P11">
-        <v>-6.594361305236816</v>
+        <v>22.69543647766113</v>
       </c>
       <c r="Q11">
-        <v>-0.2444209903478622</v>
+        <v>-0.3056283891201019</v>
       </c>
       <c r="R11">
-        <v>-1.853464245796204</v>
+        <v>1.487401008605957</v>
       </c>
       <c r="S11">
-        <v>-1.853464245796204</v>
+        <v>1.487401008605957</v>
       </c>
       <c r="T11">
-        <v>1.738007545471191</v>
+        <v>-0.1333182901144028</v>
       </c>
       <c r="U11">
-        <v>1.814588904380798</v>
+        <v>2.322928190231323</v>
       </c>
       <c r="V11">
-        <v>-33.82359313964844</v>
+        <v>28.58895301818848</v>
       </c>
       <c r="W11">
-        <v>-6.059988498687744</v>
+        <v>-4.691687107086182</v>
       </c>
       <c r="X11">
-        <v>74.31073760986328</v>
+        <v>9.539548873901367</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1490,73 +1490,73 @@
         <v>46037</v>
       </c>
       <c r="B12">
-        <v>-23.12606811523438</v>
+        <v>-18.53303527832031</v>
       </c>
       <c r="C12">
-        <v>-19.81502723693848</v>
+        <v>-17.8206729888916</v>
       </c>
       <c r="D12">
-        <v>76.65828704833984</v>
+        <v>26.76104927062988</v>
       </c>
       <c r="E12">
-        <v>-0.8657068610191345</v>
+        <v>-0.1024405360221863</v>
       </c>
       <c r="F12">
-        <v>0.9492822885513306</v>
+        <v>-0.03048141859471798</v>
       </c>
       <c r="G12">
-        <v>22.70079612731934</v>
+        <v>25.33832550048828</v>
       </c>
       <c r="H12">
-        <v>-0.003639355069026351</v>
+        <v>0.3354927599430084</v>
       </c>
       <c r="I12">
-        <v>0.4978664815425873</v>
+        <v>0.5164514780044556</v>
       </c>
       <c r="J12">
-        <v>-0.2971557378768921</v>
+        <v>-1.471120357513428</v>
       </c>
       <c r="K12">
-        <v>697.6030883789062</v>
+        <v>992.6260375976562</v>
       </c>
       <c r="L12">
-        <v>819.6270751953125</v>
+        <v>-23.78511047363281</v>
       </c>
       <c r="M12">
-        <v>0.2786969542503357</v>
+        <v>-0.2264830470085144</v>
       </c>
       <c r="N12">
-        <v>-4.089308738708496</v>
+        <v>23.20145225524902</v>
       </c>
       <c r="O12">
-        <v>8.352804183959961</v>
+        <v>18.36211013793945</v>
       </c>
       <c r="P12">
-        <v>8.352804183959961</v>
+        <v>18.36211013793945</v>
       </c>
       <c r="Q12">
-        <v>0.2169961035251617</v>
+        <v>0.1014567613601685</v>
       </c>
       <c r="R12">
-        <v>-0.1280001103878021</v>
+        <v>3.326971769332886</v>
       </c>
       <c r="S12">
-        <v>-0.1280001103878021</v>
+        <v>3.326971769332886</v>
       </c>
       <c r="T12">
-        <v>1.283808469772339</v>
+        <v>-0.1552675068378448</v>
       </c>
       <c r="U12">
-        <v>1.770500540733337</v>
+        <v>1.584525346755981</v>
       </c>
       <c r="V12">
-        <v>-76.94404602050781</v>
+        <v>0.8155927658081055</v>
       </c>
       <c r="W12">
-        <v>-3.646876335144043</v>
+        <v>-0.6679081916809082</v>
       </c>
       <c r="X12">
-        <v>61.7005729675293</v>
+        <v>15.78403091430664</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1582,73 +1582,73 @@
         <v>46127</v>
       </c>
       <c r="B13">
-        <v>-14.37002277374268</v>
+        <v>-14.64664459228516</v>
       </c>
       <c r="C13">
-        <v>-14.28244209289551</v>
+        <v>-19.19020652770996</v>
       </c>
       <c r="D13">
-        <v>64.07469940185547</v>
+        <v>-0.8626381754875183</v>
       </c>
       <c r="E13">
-        <v>9.59083080291748</v>
+        <v>9.799290657043457</v>
       </c>
       <c r="F13">
-        <v>0.20405213534832</v>
+        <v>-0.7426512241363525</v>
       </c>
       <c r="G13">
-        <v>29.22318649291992</v>
+        <v>32.10414123535156</v>
       </c>
       <c r="H13">
-        <v>9.224163055419922</v>
+        <v>8.992682456970215</v>
       </c>
       <c r="I13">
-        <v>-15.82218551635742</v>
+        <v>-22.96718406677246</v>
       </c>
       <c r="J13">
-        <v>-1.774273991584778</v>
+        <v>-2.935309886932373</v>
       </c>
       <c r="K13">
-        <v>-1931.388061523438</v>
+        <v>-757.5284423828125</v>
       </c>
       <c r="L13">
-        <v>-2674.504150390625</v>
+        <v>-2715.49267578125</v>
       </c>
       <c r="M13">
-        <v>-0.1895909160375595</v>
+        <v>-0.4405776858329773</v>
       </c>
       <c r="N13">
-        <v>-9.340855598449707</v>
+        <v>14.82252502441406</v>
       </c>
       <c r="O13">
-        <v>4.718990802764893</v>
+        <v>15.19609546661377</v>
       </c>
       <c r="P13">
-        <v>4.718990802764893</v>
+        <v>15.19609546661377</v>
       </c>
       <c r="Q13">
-        <v>-4.511424541473389</v>
+        <v>-4.195284366607666</v>
       </c>
       <c r="R13">
-        <v>-2.856560468673706</v>
+        <v>0.04787315055727959</v>
       </c>
       <c r="S13">
-        <v>-2.856560468673706</v>
+        <v>0.04787315055727959</v>
       </c>
       <c r="T13">
-        <v>0.9601725935935974</v>
+        <v>0.006797714158892632</v>
       </c>
       <c r="U13">
-        <v>2.35492205619812</v>
+        <v>2.24903416633606</v>
       </c>
       <c r="V13">
-        <v>98.39411163330078</v>
+        <v>182.4942169189453</v>
       </c>
       <c r="W13">
-        <v>6.566961288452148</v>
+        <v>7.934603214263916</v>
       </c>
       <c r="X13">
-        <v>59.21485900878906</v>
+        <v>10.54951095581055</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1674,73 +1674,73 @@
         <v>46217</v>
       </c>
       <c r="B14">
-        <v>-0.9341334104537964</v>
+        <v>-28.54530334472656</v>
       </c>
       <c r="C14">
-        <v>-1.832775592803955</v>
+        <v>-33.117919921875</v>
       </c>
       <c r="D14">
-        <v>50.45174789428711</v>
+        <v>-43.33471298217773</v>
       </c>
       <c r="E14">
-        <v>-5.031774520874023</v>
+        <v>-4.35333251953125</v>
       </c>
       <c r="F14">
-        <v>1.375241160392761</v>
+        <v>-51.6615104675293</v>
       </c>
       <c r="G14">
-        <v>25.59688186645508</v>
+        <v>28.56290435791016</v>
       </c>
       <c r="H14">
-        <v>-1.904865026473999</v>
+        <v>-1.83905816078186</v>
       </c>
       <c r="I14">
-        <v>4.46941089630127</v>
+        <v>-26.94353103637695</v>
       </c>
       <c r="J14">
-        <v>-1.309110403060913</v>
+        <v>-2.405628442764282</v>
       </c>
       <c r="K14">
-        <v>-1371.089721679688</v>
+        <v>-119.8295364379883</v>
       </c>
       <c r="L14">
-        <v>176.6718444824219</v>
+        <v>259.4745178222656</v>
       </c>
       <c r="M14">
-        <v>0.07138714194297791</v>
+        <v>-0.002019138773903251</v>
       </c>
       <c r="N14">
-        <v>-4.955858707427979</v>
+        <v>22.09452247619629</v>
       </c>
       <c r="O14">
-        <v>12.91298484802246</v>
+        <v>38.44000625610352</v>
       </c>
       <c r="P14">
-        <v>12.91298484802246</v>
+        <v>38.44000625610352</v>
       </c>
       <c r="Q14">
-        <v>-1.00766384601593</v>
+        <v>-0.3903557658195496</v>
       </c>
       <c r="R14">
-        <v>-2.305301427841187</v>
+        <v>0.9044159650802612</v>
       </c>
       <c r="S14">
-        <v>-2.305301427841187</v>
+        <v>0.9044159650802612</v>
       </c>
       <c r="T14">
-        <v>1.06536066532135</v>
+        <v>-0.6116322875022888</v>
       </c>
       <c r="U14">
-        <v>2.169066190719604</v>
+        <v>2.611786365509033</v>
       </c>
       <c r="V14">
-        <v>20.95015907287598</v>
+        <v>77.93718719482422</v>
       </c>
       <c r="W14">
-        <v>9.091742515563965</v>
+        <v>9.397290229797363</v>
       </c>
       <c r="X14">
-        <v>78.19524383544922</v>
+        <v>8.108551979064941</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1766,73 +1766,73 @@
         <v>46307</v>
       </c>
       <c r="B15">
-        <v>-16.11603927612305</v>
+        <v>-11.72253322601318</v>
       </c>
       <c r="C15">
-        <v>-8.863663673400879</v>
+        <v>3.537135124206543</v>
       </c>
       <c r="D15">
-        <v>64.58543395996094</v>
+        <v>-23.61277389526367</v>
       </c>
       <c r="E15">
-        <v>-4.002700805664062</v>
+        <v>-3.002802133560181</v>
       </c>
       <c r="F15">
-        <v>0.7792584896087646</v>
+        <v>0.5048030018806458</v>
       </c>
       <c r="G15">
-        <v>26.57843208312988</v>
+        <v>26.54944610595703</v>
       </c>
       <c r="H15">
-        <v>-1.845997214317322</v>
+        <v>-1.135271191596985</v>
       </c>
       <c r="I15">
-        <v>6.376521110534668</v>
+        <v>0.5219492316246033</v>
       </c>
       <c r="J15">
-        <v>-0.2755474448204041</v>
+        <v>-1.260339856147766</v>
       </c>
       <c r="K15">
-        <v>-714.8812866210938</v>
+        <v>800.0784301757812</v>
       </c>
       <c r="L15">
-        <v>250.6279754638672</v>
+        <v>-400.4699401855469</v>
       </c>
       <c r="M15">
-        <v>-0.01669981144368649</v>
+        <v>-0.06281492114067078</v>
       </c>
       <c r="N15">
-        <v>11.59708881378174</v>
+        <v>34.73731994628906</v>
       </c>
       <c r="O15">
-        <v>10.81081390380859</v>
+        <v>43.39098739624023</v>
       </c>
       <c r="P15">
-        <v>10.81081390380859</v>
+        <v>43.39098739624023</v>
       </c>
       <c r="Q15">
-        <v>-0.6286287307739258</v>
+        <v>-0.7089628577232361</v>
       </c>
       <c r="R15">
-        <v>-1.863281965255737</v>
+        <v>1.571513414382935</v>
       </c>
       <c r="S15">
-        <v>-1.863281965255737</v>
+        <v>1.571513414382935</v>
       </c>
       <c r="T15">
-        <v>1.169336795806885</v>
+        <v>-0.9655337929725647</v>
       </c>
       <c r="U15">
-        <v>1.882557392120361</v>
+        <v>2.335283994674683</v>
       </c>
       <c r="V15">
-        <v>-18.02775955200195</v>
+        <v>31.14088249206543</v>
       </c>
       <c r="W15">
-        <v>-9.05800724029541</v>
+        <v>-8.419631958007812</v>
       </c>
       <c r="X15">
-        <v>65.75569915771484</v>
+        <v>7.416556358337402</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1858,73 +1858,73 @@
         <v>46397</v>
       </c>
       <c r="B16">
-        <v>-8.692004203796387</v>
+        <v>-8.180610656738281</v>
       </c>
       <c r="C16">
-        <v>-9.817580223083496</v>
+        <v>-10.87497806549072</v>
       </c>
       <c r="D16">
-        <v>83.39738464355469</v>
+        <v>40.80615615844727</v>
       </c>
       <c r="E16">
-        <v>-0.04185037314891815</v>
+        <v>-0.008095577359199524</v>
       </c>
       <c r="F16">
-        <v>1.200284481048584</v>
+        <v>0.8941102027893066</v>
       </c>
       <c r="G16">
-        <v>21.06805038452148</v>
+        <v>22.13270378112793</v>
       </c>
       <c r="H16">
-        <v>-0.1120687276124954</v>
+        <v>-0.1044626832008362</v>
       </c>
       <c r="I16">
-        <v>3.010212659835815</v>
+        <v>3.196655750274658</v>
       </c>
       <c r="J16">
-        <v>-0.4665839076042175</v>
+        <v>-1.370038270950317</v>
       </c>
       <c r="K16">
-        <v>408.1132507324219</v>
+        <v>524.92138671875</v>
       </c>
       <c r="L16">
-        <v>194.11962890625</v>
+        <v>151.2511901855469</v>
       </c>
       <c r="M16">
-        <v>0.3830485045909882</v>
+        <v>-0.09448939561843872</v>
       </c>
       <c r="N16">
-        <v>4.302391529083252</v>
+        <v>5.18342113494873</v>
       </c>
       <c r="O16">
-        <v>10.48735237121582</v>
+        <v>11.59712982177734</v>
       </c>
       <c r="P16">
-        <v>10.48735237121582</v>
+        <v>11.59712982177734</v>
       </c>
       <c r="Q16">
-        <v>0.3463945686817169</v>
+        <v>0.2548562288284302</v>
       </c>
       <c r="R16">
-        <v>-2.102784395217896</v>
+        <v>2.046677112579346</v>
       </c>
       <c r="S16">
-        <v>-2.102784395217896</v>
+        <v>2.046677112579346</v>
       </c>
       <c r="T16">
-        <v>1.575498223304749</v>
+        <v>0.3167662620544434</v>
       </c>
       <c r="U16">
-        <v>2.320911884307861</v>
+        <v>2.364192962646484</v>
       </c>
       <c r="V16">
-        <v>-61.98138809204102</v>
+        <v>9.580709457397461</v>
       </c>
       <c r="W16">
-        <v>0.09485265612602234</v>
+        <v>0.6731795072555542</v>
       </c>
       <c r="X16">
-        <v>75.01953887939453</v>
+        <v>31.71294975280762</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1950,73 +1950,73 @@
         <v>46487</v>
       </c>
       <c r="B17">
-        <v>-3.66528844833374</v>
+        <v>-12.39109706878662</v>
       </c>
       <c r="C17">
-        <v>-6.224126815795898</v>
+        <v>-15.90584564208984</v>
       </c>
       <c r="D17">
-        <v>73.39701080322266</v>
+        <v>3.194483518600464</v>
       </c>
       <c r="E17">
-        <v>9.773988723754883</v>
+        <v>10.17785358428955</v>
       </c>
       <c r="F17">
-        <v>0.2788865268230438</v>
+        <v>-0.73518306016922</v>
       </c>
       <c r="G17">
-        <v>23.36176872253418</v>
+        <v>26.38799285888672</v>
       </c>
       <c r="H17">
-        <v>8.783380508422852</v>
+        <v>8.505253791809082</v>
       </c>
       <c r="I17">
-        <v>-10.32711029052734</v>
+        <v>-20.13975715637207</v>
       </c>
       <c r="J17">
-        <v>-1.761000037193298</v>
+        <v>-2.260509252548218</v>
       </c>
       <c r="K17">
-        <v>-95.34645080566406</v>
+        <v>45.08265686035156</v>
       </c>
       <c r="L17">
-        <v>-1439.433715820312</v>
+        <v>-1848.544677734375</v>
       </c>
       <c r="M17">
-        <v>-0.0487920455634594</v>
+        <v>-0.1085953265428543</v>
       </c>
       <c r="N17">
-        <v>3.187964200973511</v>
+        <v>21.37009429931641</v>
       </c>
       <c r="O17">
-        <v>17.85018730163574</v>
+        <v>35.58435440063477</v>
       </c>
       <c r="P17">
-        <v>17.85018730163574</v>
+        <v>35.58435440063477</v>
       </c>
       <c r="Q17">
-        <v>-3.407516241073608</v>
+        <v>-2.767124652862549</v>
       </c>
       <c r="R17">
-        <v>-2.135568857192993</v>
+        <v>1.169044494628906</v>
       </c>
       <c r="S17">
-        <v>-2.135568857192993</v>
+        <v>1.169044494628906</v>
       </c>
       <c r="T17">
-        <v>1.031029939651489</v>
+        <v>0.02894119173288345</v>
       </c>
       <c r="U17">
-        <v>2.237267017364502</v>
+        <v>2.256118535995483</v>
       </c>
       <c r="V17">
-        <v>81.20040130615234</v>
+        <v>158.9797515869141</v>
       </c>
       <c r="W17">
-        <v>1.546786904335022</v>
+        <v>2.294147968292236</v>
       </c>
       <c r="X17">
-        <v>67.17317962646484</v>
+        <v>13.10347175598145</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2042,73 +2042,73 @@
         <v>46577</v>
       </c>
       <c r="B18">
-        <v>-10.28770542144775</v>
+        <v>-34.14476776123047</v>
       </c>
       <c r="C18">
-        <v>-2.812832355499268</v>
+        <v>-33.14040374755859</v>
       </c>
       <c r="D18">
-        <v>78.67633056640625</v>
+        <v>-16.04802513122559</v>
       </c>
       <c r="E18">
-        <v>-0.8795619606971741</v>
+        <v>-1.031995177268982</v>
       </c>
       <c r="F18">
-        <v>1.135165214538574</v>
+        <v>-51.97970962524414</v>
       </c>
       <c r="G18">
-        <v>21.37750244140625</v>
+        <v>24.78726768493652</v>
       </c>
       <c r="H18">
-        <v>-0.1900078356266022</v>
+        <v>-0.282841295003891</v>
       </c>
       <c r="I18">
-        <v>4.936472415924072</v>
+        <v>-24.70269203186035</v>
       </c>
       <c r="J18">
-        <v>0.1399563997983932</v>
+        <v>-1.034256458282471</v>
       </c>
       <c r="K18">
-        <v>459.3733825683594</v>
+        <v>161.0903930664062</v>
       </c>
       <c r="L18">
-        <v>80.79878234863281</v>
+        <v>515.8548583984375</v>
       </c>
       <c r="M18">
-        <v>0.06350655108690262</v>
+        <v>0.08089126646518707</v>
       </c>
       <c r="N18">
-        <v>6.258922576904297</v>
+        <v>29.20388221740723</v>
       </c>
       <c r="O18">
-        <v>0.6905536651611328</v>
+        <v>28.69966697692871</v>
       </c>
       <c r="P18">
-        <v>0.6905536651611328</v>
+        <v>28.69966697692871</v>
       </c>
       <c r="Q18">
-        <v>-0.5584608912467957</v>
+        <v>0.1631743013858795</v>
       </c>
       <c r="R18">
-        <v>-2.285391330718994</v>
+        <v>1.302326679229736</v>
       </c>
       <c r="S18">
-        <v>-2.285391330718994</v>
+        <v>1.302326679229736</v>
       </c>
       <c r="T18">
-        <v>1.449535012245178</v>
+        <v>-0.02351864241063595</v>
       </c>
       <c r="U18">
-        <v>2.38765549659729</v>
+        <v>2.826701641082764</v>
       </c>
       <c r="V18">
-        <v>-17.90649032592773</v>
+        <v>25.10453605651855</v>
       </c>
       <c r="W18">
-        <v>2.119693279266357</v>
+        <v>2.50826621055603</v>
       </c>
       <c r="X18">
-        <v>76.92665863037109</v>
+        <v>10.53647327423096</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2134,73 +2134,73 @@
         <v>46667</v>
       </c>
       <c r="B19">
-        <v>-9.586965560913086</v>
+        <v>-8.176721572875977</v>
       </c>
       <c r="C19">
-        <v>-12.4905424118042</v>
+        <v>5.821447372436523</v>
       </c>
       <c r="D19">
-        <v>65.75072479248047</v>
+        <v>-23.14521980285645</v>
       </c>
       <c r="E19">
-        <v>-0.2270689010620117</v>
+        <v>-0.08569452911615372</v>
       </c>
       <c r="F19">
-        <v>0.6844267845153809</v>
+        <v>0.414393812417984</v>
       </c>
       <c r="G19">
-        <v>24.27728843688965</v>
+        <v>27.06236267089844</v>
       </c>
       <c r="H19">
-        <v>-0.0368526317179203</v>
+        <v>0.3193818032741547</v>
       </c>
       <c r="I19">
-        <v>3.728271961212158</v>
+        <v>1.211420893669128</v>
       </c>
       <c r="J19">
-        <v>-2.233526468276978</v>
+        <v>-3.341717004776001</v>
       </c>
       <c r="K19">
-        <v>1035.595947265625</v>
+        <v>1214.302001953125</v>
       </c>
       <c r="L19">
-        <v>168.9142150878906</v>
+        <v>183.6057586669922</v>
       </c>
       <c r="M19">
-        <v>-0.1796382069587708</v>
+        <v>-0.1677998453378677</v>
       </c>
       <c r="N19">
-        <v>5.262104034423828</v>
+        <v>32.99234390258789</v>
       </c>
       <c r="O19">
-        <v>18.64989280700684</v>
+        <v>51.30271911621094</v>
       </c>
       <c r="P19">
-        <v>18.64989280700684</v>
+        <v>51.30271911621094</v>
       </c>
       <c r="Q19">
-        <v>-0.4688157141208649</v>
+        <v>-0.4638198018074036</v>
       </c>
       <c r="R19">
-        <v>-2.265936136245728</v>
+        <v>1.450591206550598</v>
       </c>
       <c r="S19">
-        <v>-2.265936136245728</v>
+        <v>1.450591206550598</v>
       </c>
       <c r="T19">
-        <v>1.594264268875122</v>
+        <v>-0.4053796231746674</v>
       </c>
       <c r="U19">
-        <v>1.606114506721497</v>
+        <v>2.458683013916016</v>
       </c>
       <c r="V19">
-        <v>-53.28030776977539</v>
+        <v>-5.987011909484863</v>
       </c>
       <c r="W19">
-        <v>-5.562334537506104</v>
+        <v>-4.475330829620361</v>
       </c>
       <c r="X19">
-        <v>68.74882507324219</v>
+        <v>8.323001861572266</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2226,73 +2226,73 @@
         <v>46757</v>
       </c>
       <c r="B20">
-        <v>-11.31320858001709</v>
+        <v>-8.925418853759766</v>
       </c>
       <c r="C20">
-        <v>-11.42171096801758</v>
+        <v>-12.98470401763916</v>
       </c>
       <c r="D20">
-        <v>75.60954284667969</v>
+        <v>23.95609283447266</v>
       </c>
       <c r="E20">
-        <v>-0.9353048801422119</v>
+        <v>-0.1532228738069534</v>
       </c>
       <c r="F20">
-        <v>1.156124591827393</v>
+        <v>0.1697767525911331</v>
       </c>
       <c r="G20">
-        <v>23.99966621398926</v>
+        <v>26.99345779418945</v>
       </c>
       <c r="H20">
-        <v>0.2847205996513367</v>
+        <v>0.3799042105674744</v>
       </c>
       <c r="I20">
-        <v>3.445509672164917</v>
+        <v>0.08220556378364563</v>
       </c>
       <c r="J20">
-        <v>1.426864504814148</v>
+        <v>-0.6852485537528992</v>
       </c>
       <c r="K20">
-        <v>-1151.780029296875</v>
+        <v>-117.9767379760742</v>
       </c>
       <c r="L20">
-        <v>1375.4404296875</v>
+        <v>-24.76315498352051</v>
       </c>
       <c r="M20">
-        <v>0.2894693315029144</v>
+        <v>-0.2299730777740479</v>
       </c>
       <c r="N20">
-        <v>-14.39273262023926</v>
+        <v>15.14472389221191</v>
       </c>
       <c r="O20">
-        <v>9.191999435424805</v>
+        <v>17.84358024597168</v>
       </c>
       <c r="P20">
-        <v>9.191999435424805</v>
+        <v>17.84358024597168</v>
       </c>
       <c r="Q20">
-        <v>0.4203753471374512</v>
+        <v>0.4345327615737915</v>
       </c>
       <c r="R20">
-        <v>-0.4222539663314819</v>
+        <v>3.933435201644897</v>
       </c>
       <c r="S20">
-        <v>-0.4222539663314819</v>
+        <v>3.933435201644897</v>
       </c>
       <c r="T20">
-        <v>1.325740456581116</v>
+        <v>0.2456420063972473</v>
       </c>
       <c r="U20">
-        <v>1.586506247520447</v>
+        <v>1.184059858322144</v>
       </c>
       <c r="V20">
-        <v>-109.3171463012695</v>
+        <v>-6.41521167755127</v>
       </c>
       <c r="W20">
-        <v>0.6979792714118958</v>
+        <v>4.164293766021729</v>
       </c>
       <c r="X20">
-        <v>72.61916351318359</v>
+        <v>31.53915023803711</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2318,73 +2318,73 @@
         <v>46847</v>
       </c>
       <c r="B21">
-        <v>-10.33581733703613</v>
+        <v>-8.991572380065918</v>
       </c>
       <c r="C21">
-        <v>-12.62590980529785</v>
+        <v>-13.60543823242188</v>
       </c>
       <c r="D21">
-        <v>48.86020278930664</v>
+        <v>-16.43159484863281</v>
       </c>
       <c r="E21">
-        <v>9.58305549621582</v>
+        <v>9.801165580749512</v>
       </c>
       <c r="F21">
-        <v>0.2190853953361511</v>
+        <v>-0.7397580146789551</v>
       </c>
       <c r="G21">
-        <v>26.81978225708008</v>
+        <v>29.83633232116699</v>
       </c>
       <c r="H21">
-        <v>9.250443458557129</v>
+        <v>9.002096176147461</v>
       </c>
       <c r="I21">
-        <v>-15.5880012512207</v>
+        <v>-22.4888858795166</v>
       </c>
       <c r="J21">
-        <v>-1.659456610679626</v>
+        <v>-2.886730432510376</v>
       </c>
       <c r="K21">
-        <v>-1760.06396484375</v>
+        <v>-202.6479187011719</v>
       </c>
       <c r="L21">
-        <v>-2480.96728515625</v>
+        <v>-2714.900390625</v>
       </c>
       <c r="M21">
-        <v>0.008497131988406181</v>
+        <v>-0.2639592587947845</v>
       </c>
       <c r="N21">
-        <v>-11.69256687164307</v>
+        <v>14.44697761535645</v>
       </c>
       <c r="O21">
-        <v>9.502338409423828</v>
+        <v>19.18374061584473</v>
       </c>
       <c r="P21">
-        <v>9.502338409423828</v>
+        <v>19.18374061584473</v>
       </c>
       <c r="Q21">
-        <v>-5.175424098968506</v>
+        <v>-4.957048416137695</v>
       </c>
       <c r="R21">
-        <v>-2.838890552520752</v>
+        <v>-0.07817967981100082</v>
       </c>
       <c r="S21">
-        <v>-2.838890552520752</v>
+        <v>-0.07817967981100082</v>
       </c>
       <c r="T21">
-        <v>0.5686543583869934</v>
+        <v>-0.4247851669788361</v>
       </c>
       <c r="U21">
-        <v>2.555478572845459</v>
+        <v>2.359609603881836</v>
       </c>
       <c r="V21">
-        <v>117.0092697143555</v>
+        <v>189.2551879882812</v>
       </c>
       <c r="W21">
-        <v>6.101387023925781</v>
+        <v>7.144710063934326</v>
       </c>
       <c r="X21">
-        <v>67.42653656005859</v>
+        <v>11.32844257354736</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2410,73 +2410,73 @@
         <v>46937</v>
       </c>
       <c r="B22">
-        <v>-3.290045738220215</v>
+        <v>-32.99914932250977</v>
       </c>
       <c r="C22">
-        <v>-0.7496943473815918</v>
+        <v>-34.46827697753906</v>
       </c>
       <c r="D22">
-        <v>60.49273300170898</v>
+        <v>-36.58829116821289</v>
       </c>
       <c r="E22">
-        <v>-5.034473896026611</v>
+        <v>-4.262678146362305</v>
       </c>
       <c r="F22">
-        <v>1.406846046447754</v>
+        <v>-51.67942047119141</v>
       </c>
       <c r="G22">
-        <v>26.54975509643555</v>
+        <v>29.92772483825684</v>
       </c>
       <c r="H22">
-        <v>-1.942410588264465</v>
+        <v>-1.900270223617554</v>
       </c>
       <c r="I22">
-        <v>5.59807825088501</v>
+        <v>-26.00848770141602</v>
       </c>
       <c r="J22">
-        <v>-1.48006534576416</v>
+        <v>-2.406293869018555</v>
       </c>
       <c r="K22">
-        <v>-1549.788818359375</v>
+        <v>-191.8600616455078</v>
       </c>
       <c r="L22">
-        <v>-75.11721801757812</v>
+        <v>34.71305847167969</v>
       </c>
       <c r="M22">
-        <v>0.0996035635471344</v>
+        <v>0.02391574904322624</v>
       </c>
       <c r="N22">
-        <v>1.967657089233398</v>
+        <v>30.94796943664551</v>
       </c>
       <c r="O22">
-        <v>14.82077884674072</v>
+        <v>38.88905715942383</v>
       </c>
       <c r="P22">
-        <v>14.82077884674072</v>
+        <v>38.88905715942383</v>
       </c>
       <c r="Q22">
-        <v>-0.8244190812110901</v>
+        <v>-0.306602954864502</v>
       </c>
       <c r="R22">
-        <v>-2.581085205078125</v>
+        <v>0.6803328394889832</v>
       </c>
       <c r="S22">
-        <v>-2.581085205078125</v>
+        <v>0.6803328394889832</v>
       </c>
       <c r="T22">
-        <v>1.122486710548401</v>
+        <v>-0.5476083159446716</v>
       </c>
       <c r="U22">
-        <v>2.045066595077515</v>
+        <v>2.542976379394531</v>
       </c>
       <c r="V22">
-        <v>8.401729583740234</v>
+        <v>69.93778228759766</v>
       </c>
       <c r="W22">
-        <v>-1.649963974952698</v>
+        <v>-2.375112771987915</v>
       </c>
       <c r="X22">
-        <v>83.05727386474609</v>
+        <v>11.57596492767334</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2502,73 +2502,73 @@
         <v>47027</v>
       </c>
       <c r="B23">
-        <v>-11.72882652282715</v>
+        <v>-0.3144131302833557</v>
       </c>
       <c r="C23">
-        <v>-14.12401962280273</v>
+        <v>4.907366752624512</v>
       </c>
       <c r="D23">
-        <v>77.79491424560547</v>
+        <v>-12.83533096313477</v>
       </c>
       <c r="E23">
-        <v>-0.1613961309194565</v>
+        <v>-0.521193265914917</v>
       </c>
       <c r="F23">
-        <v>0.8504626154899597</v>
+        <v>0.6126975417137146</v>
       </c>
       <c r="G23">
-        <v>22.21009635925293</v>
+        <v>28.09753036499023</v>
       </c>
       <c r="H23">
-        <v>-0.02984584495425224</v>
+        <v>0.1313666999340057</v>
       </c>
       <c r="I23">
-        <v>5.571828842163086</v>
+        <v>2.843444108963013</v>
       </c>
       <c r="J23">
-        <v>0.5526378750801086</v>
+        <v>-0.5561422109603882</v>
       </c>
       <c r="K23">
-        <v>449.9100952148438</v>
+        <v>1374.347412109375</v>
       </c>
       <c r="L23">
-        <v>299.4281311035156</v>
+        <v>234.5666351318359</v>
       </c>
       <c r="M23">
-        <v>-0.01591171696782112</v>
+        <v>0.1025179177522659</v>
       </c>
       <c r="N23">
-        <v>13.06451988220215</v>
+        <v>48.51678085327148</v>
       </c>
       <c r="O23">
-        <v>-7.219142913818359</v>
+        <v>27.46868515014648</v>
       </c>
       <c r="P23">
-        <v>-7.219142913818359</v>
+        <v>27.46868515014648</v>
       </c>
       <c r="Q23">
-        <v>0.4440248608589172</v>
+        <v>0.5031032562255859</v>
       </c>
       <c r="R23">
-        <v>-1.82199239730835</v>
+        <v>2.082805395126343</v>
       </c>
       <c r="S23">
-        <v>-1.82199239730835</v>
+        <v>2.082805395126343</v>
       </c>
       <c r="T23">
-        <v>1.897748827934265</v>
+        <v>0.01330912113189697</v>
       </c>
       <c r="U23">
-        <v>1.696742296218872</v>
+        <v>2.3434898853302</v>
       </c>
       <c r="V23">
-        <v>-51.76857757568359</v>
+        <v>0.5894012451171875</v>
       </c>
       <c r="W23">
-        <v>-5.040612697601318</v>
+        <v>-4.006476879119873</v>
       </c>
       <c r="X23">
-        <v>74.91200256347656</v>
+        <v>9.546453475952148</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2594,73 +2594,73 @@
         <v>47117</v>
       </c>
       <c r="B24">
-        <v>-13.52920341491699</v>
+        <v>-8.539074897766113</v>
       </c>
       <c r="C24">
-        <v>-17.53503799438477</v>
+        <v>-5.524951457977295</v>
       </c>
       <c r="D24">
-        <v>74.71180725097656</v>
+        <v>-17.7833080291748</v>
       </c>
       <c r="E24">
-        <v>-0.1644800156354904</v>
+        <v>0.05478978529572487</v>
       </c>
       <c r="F24">
-        <v>0.7813841104507446</v>
+        <v>0.4818661212921143</v>
       </c>
       <c r="G24">
-        <v>22.1196460723877</v>
+        <v>27.22255897521973</v>
       </c>
       <c r="H24">
-        <v>0.03261515125632286</v>
+        <v>0.491407036781311</v>
       </c>
       <c r="I24">
-        <v>3.015453338623047</v>
+        <v>-2.145673036575317</v>
       </c>
       <c r="J24">
-        <v>0.05458399280905724</v>
+        <v>-1.191394209861755</v>
       </c>
       <c r="K24">
-        <v>806.919677734375</v>
+        <v>978.1724243164062</v>
       </c>
       <c r="L24">
-        <v>2.971413135528564</v>
+        <v>99.65611267089844</v>
       </c>
       <c r="M24">
-        <v>-0.05713923275470734</v>
+        <v>0.06107018142938614</v>
       </c>
       <c r="N24">
-        <v>12.62931346893311</v>
+        <v>42.45044708251953</v>
       </c>
       <c r="O24">
-        <v>-6.686675071716309</v>
+        <v>26.66798782348633</v>
       </c>
       <c r="P24">
-        <v>-6.686675071716309</v>
+        <v>26.66798782348633</v>
       </c>
       <c r="Q24">
-        <v>0.2831992208957672</v>
+        <v>0.7616620063781738</v>
       </c>
       <c r="R24">
-        <v>-1.947022080421448</v>
+        <v>1.514400362968445</v>
       </c>
       <c r="S24">
-        <v>-1.947022080421448</v>
+        <v>1.514400362968445</v>
       </c>
       <c r="T24">
-        <v>1.927348136901855</v>
+        <v>0.05630487948656082</v>
       </c>
       <c r="U24">
-        <v>1.501382231712341</v>
+        <v>2.038183450698853</v>
       </c>
       <c r="V24">
-        <v>-35.97509002685547</v>
+        <v>15.19377422332764</v>
       </c>
       <c r="W24">
-        <v>-5.467119693756104</v>
+        <v>-3.02698826789856</v>
       </c>
       <c r="X24">
-        <v>71.91986846923828</v>
+        <v>7.122237205505371</v>
       </c>
       <c r="Y24">
         <v>0</v>
